--- a/temp_ + Ahirkapi Anchorage.xlsx
+++ b/temp_ + Ahirkapi Anchorage.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Wed Jan 29 21:00:18 2025</t>
+    <t>Sun Feb  9 18:22:13 2025</t>
   </si>
   <si>
-    <t>Wed Jan 29 23:08:59 2025</t>
+    <t>Sun Feb  9 18:56:10 2025</t>
   </si>
 </sst>
 </file>
@@ -359,19 +359,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>235.2079214086611</v>
+        <v>417.2756032567905</v>
       </c>
       <c r="B1">
-        <v>753.5434986238236</v>
+        <v>938.6656286060622</v>
       </c>
       <c r="C1">
-        <v>716.8767123287671</v>
+        <v>735.0047846889952</v>
       </c>
       <c r="D1">
-        <v>0.6693091434761452</v>
+        <v>0.6558996346288973</v>
       </c>
       <c r="E1">
-        <v>0.04214619880732994</v>
+        <v>0.04513249952657419</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/temp_ + Ahirkapi Anchorage.xlsx
+++ b/temp_ + Ahirkapi Anchorage.xlsx
@@ -11,17 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Sun Feb  9 18:22:13 2025</t>
-  </si>
-  <si>
-    <t>Sun Feb  9 18:56:10 2025</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -359,27 +348,427 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>417.2756032567905</v>
+        <v>362.4940806953254</v>
       </c>
       <c r="B1">
-        <v>938.6656286060622</v>
+        <v>982.2534915037543</v>
       </c>
       <c r="C1">
-        <v>735.0047846889952</v>
+        <v>747.0909090909091</v>
       </c>
       <c r="D1">
-        <v>0.6558996346288973</v>
+        <v>0.6499961496405978</v>
       </c>
       <c r="E1">
-        <v>0.04513249952657419</v>
+        <v>0.04234816313030765</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>387.0196148405951</v>
+      </c>
+      <c r="B2">
+        <v>1047.602931186366</v>
+      </c>
+      <c r="C2">
+        <v>741.0141176470588</v>
+      </c>
+      <c r="D2">
+        <v>0.6593528629592291</v>
+      </c>
+      <c r="E2">
+        <v>0.04356015802914448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>455.1979757403124</v>
+      </c>
+      <c r="B3">
+        <v>988.3792566161067</v>
+      </c>
+      <c r="C3">
+        <v>922.209756097561</v>
+      </c>
+      <c r="D3">
+        <v>0.6757278817077513</v>
+      </c>
+      <c r="E3">
+        <v>0.03692080585966319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>267.6068509403713</v>
+      </c>
+      <c r="B4">
+        <v>893.0842202753475</v>
+      </c>
+      <c r="C4">
+        <v>1009.46568627451</v>
+      </c>
+      <c r="D4">
+        <v>0.6563218137116946</v>
+      </c>
+      <c r="E4">
+        <v>0.04641878265457657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>324.9382701386529</v>
+      </c>
+      <c r="B5">
+        <v>876.8906608558389</v>
+      </c>
+      <c r="C5">
+        <v>990.8955223880597</v>
+      </c>
+      <c r="D5">
+        <v>0.6710503054763695</v>
+      </c>
+      <c r="E5">
+        <v>0.0367057439027964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>354.3555131164555</v>
+      </c>
+      <c r="B6">
+        <v>783.9513502739704</v>
+      </c>
+      <c r="C6">
+        <v>752.6085918854416</v>
+      </c>
+      <c r="D6">
+        <v>0.6612199278653815</v>
+      </c>
+      <c r="E6">
+        <v>0.04299368443688949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>470.17440011938</v>
+      </c>
+      <c r="B7">
+        <v>946.122170585766</v>
+      </c>
+      <c r="C7">
+        <v>751.3497652582159</v>
+      </c>
+      <c r="D7">
+        <v>0.6509166364307226</v>
+      </c>
+      <c r="E7">
+        <v>0.04915097550508152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>466.1960877145162</v>
+      </c>
+      <c r="B8">
+        <v>848.0626522780983</v>
+      </c>
+      <c r="C8">
+        <v>906.0559610705596</v>
+      </c>
+      <c r="D8">
+        <v>0.681327679070368</v>
+      </c>
+      <c r="E8">
+        <v>0.04522595394908663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>503.8737934344713</v>
+      </c>
+      <c r="B9">
+        <v>908.3507091094182</v>
+      </c>
+      <c r="C9">
+        <v>988.8452088452088</v>
+      </c>
+      <c r="D9">
+        <v>0.6630522387113338</v>
+      </c>
+      <c r="E9">
+        <v>0.04948146940332453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>471.3617734672589</v>
+      </c>
+      <c r="B10">
+        <v>833.9014786168025</v>
+      </c>
+      <c r="C10">
+        <v>956.6119402985074</v>
+      </c>
+      <c r="D10">
+        <v>0.6900054436256274</v>
+      </c>
+      <c r="E10">
+        <v>0.0427445994721344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>470.2808165051172</v>
+      </c>
+      <c r="B11">
+        <v>1066.631278280775</v>
+      </c>
+      <c r="C11">
+        <v>752.0930787589499</v>
+      </c>
+      <c r="D11">
+        <v>0.6602710377295375</v>
+      </c>
+      <c r="E11">
+        <v>0.03857991236011683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>424.1690938426557</v>
+      </c>
+      <c r="B12">
+        <v>1017.847653938828</v>
+      </c>
+      <c r="C12">
+        <v>759.5480093676815</v>
+      </c>
+      <c r="D12">
+        <v>0.6440066415371442</v>
+      </c>
+      <c r="E12">
+        <v>0.05156398973864859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>447.4676921327566</v>
+      </c>
+      <c r="B13">
+        <v>1023.594123873359</v>
+      </c>
+      <c r="C13">
+        <v>945.3771289537713</v>
+      </c>
+      <c r="D13">
+        <v>0.629348168336633</v>
+      </c>
+      <c r="E13">
+        <v>0.05199322599956768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>446.8051369074049</v>
+      </c>
+      <c r="B14">
+        <v>996.8556718552762</v>
+      </c>
+      <c r="C14">
+        <v>1012.397058823529</v>
+      </c>
+      <c r="D14">
+        <v>0.6597371004920745</v>
+      </c>
+      <c r="E14">
+        <v>0.04086247375045143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>324.6269938836477</v>
+      </c>
+      <c r="B15">
+        <v>866.1663488720885</v>
+      </c>
+      <c r="C15">
+        <v>990.8955223880597</v>
+      </c>
+      <c r="D15">
+        <v>0.6710503054763695</v>
+      </c>
+      <c r="E15">
+        <v>0.0363464131361119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>374.1404669653286</v>
+      </c>
+      <c r="B16">
+        <v>827.1981340262671</v>
+      </c>
+      <c r="C16">
+        <v>732.6875</v>
+      </c>
+      <c r="D16">
+        <v>0.6661080850775645</v>
+      </c>
+      <c r="E16">
+        <v>0.04316163996707001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>558.7268636902611</v>
+      </c>
+      <c r="B17">
+        <v>970.1935972037443</v>
+      </c>
+      <c r="C17">
+        <v>723.2352941176471</v>
+      </c>
+      <c r="D17">
+        <v>0.6947982583887073</v>
+      </c>
+      <c r="E17">
+        <v>0.04802484800126362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>367.3840181178791</v>
+      </c>
+      <c r="B18">
+        <v>870.3341814099016</v>
+      </c>
+      <c r="C18">
+        <v>937.6155717761557</v>
+      </c>
+      <c r="D18">
+        <v>0.6401871402414965</v>
+      </c>
+      <c r="E18">
+        <v>0.04283323637065064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>419.7529357642758</v>
+      </c>
+      <c r="B19">
+        <v>823.7318502016195</v>
+      </c>
+      <c r="C19">
+        <v>997.8946078431372</v>
+      </c>
+      <c r="D19">
+        <v>0.6761325316951798</v>
+      </c>
+      <c r="E19">
+        <v>0.04506508409332595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>232.6080243555439</v>
+      </c>
+      <c r="B20">
+        <v>591.0842960409333</v>
+      </c>
+      <c r="C20">
+        <v>969.5334987593052</v>
+      </c>
+      <c r="D20">
+        <v>0.6818812719225352</v>
+      </c>
+      <c r="E20">
+        <v>0.03103385412860069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>301.1602688851882</v>
+      </c>
+      <c r="B21">
+        <v>947.8009289884989</v>
+      </c>
+      <c r="C21">
+        <v>739.2757793764988</v>
+      </c>
+      <c r="D21">
+        <v>0.6634175035868425</v>
+      </c>
+      <c r="E21">
+        <v>0.04720589664789671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>336.6339162577059</v>
+      </c>
+      <c r="B22">
+        <v>928.3745088167427</v>
+      </c>
+      <c r="C22">
+        <v>766.3521126760563</v>
+      </c>
+      <c r="D22">
+        <v>0.6424442315339414</v>
+      </c>
+      <c r="E22">
+        <v>0.04691016494228207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>225.2674687519175</v>
+      </c>
+      <c r="B23">
+        <v>849.152551842715</v>
+      </c>
+      <c r="C23">
+        <v>921.4223300970874</v>
+      </c>
+      <c r="D23">
+        <v>0.6720459250739914</v>
+      </c>
+      <c r="E23">
+        <v>0.04361203029725617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>382.1658557598135</v>
+      </c>
+      <c r="B24">
+        <v>1055.392894912173</v>
+      </c>
+      <c r="C24">
+        <v>1011.899509803922</v>
+      </c>
+      <c r="D24">
+        <v>0.6377215889846054</v>
+      </c>
+      <c r="E24">
+        <v>0.04355515385249981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>390.8940064002668</v>
+      </c>
+      <c r="B25">
+        <v>1071.680805617856</v>
+      </c>
+      <c r="C25">
+        <v>963.6592039800995</v>
+      </c>
+      <c r="D25">
+        <v>0.6608007904834895</v>
+      </c>
+      <c r="E25">
+        <v>0.0403141516754548</v>
       </c>
     </row>
   </sheetData>

--- a/temp_ + Ahirkapi Anchorage.xlsx
+++ b/temp_ + Ahirkapi Anchorage.xlsx
@@ -348,427 +348,427 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>362.4940806953254</v>
+        <v>516.0019448174137</v>
       </c>
       <c r="B1">
-        <v>982.2534915037543</v>
+        <v>1088.664755781793</v>
       </c>
       <c r="C1">
-        <v>747.0909090909091</v>
+        <v>1014.25304136253</v>
       </c>
       <c r="D1">
-        <v>0.6499961496405978</v>
+        <v>0.6309558059220496</v>
       </c>
       <c r="E1">
-        <v>0.04234816313030765</v>
+        <v>0.04021410072213714</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>387.0196148405951</v>
+        <v>561.8472570203513</v>
       </c>
       <c r="B2">
-        <v>1047.602931186366</v>
+        <v>1151.388692055041</v>
       </c>
       <c r="C2">
-        <v>741.0141176470588</v>
+        <v>924.5337995337995</v>
       </c>
       <c r="D2">
-        <v>0.6593528629592291</v>
+        <v>0.6074679387198131</v>
       </c>
       <c r="E2">
-        <v>0.04356015802914448</v>
+        <v>0.04395497766189977</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>455.1979757403124</v>
+        <v>402.2448940031511</v>
       </c>
       <c r="B3">
-        <v>988.3792566161067</v>
+        <v>959.0999482870349</v>
       </c>
       <c r="C3">
-        <v>922.209756097561</v>
+        <v>787.7193396226415</v>
       </c>
       <c r="D3">
-        <v>0.6757278817077513</v>
+        <v>0.6888922396522161</v>
       </c>
       <c r="E3">
-        <v>0.03692080585966319</v>
+        <v>0.04396826828858024</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>267.6068509403713</v>
+        <v>524.3639150530751</v>
       </c>
       <c r="B4">
-        <v>893.0842202753475</v>
+        <v>1116.261723854774</v>
       </c>
       <c r="C4">
-        <v>1009.46568627451</v>
+        <v>869.8390243902439</v>
       </c>
       <c r="D4">
-        <v>0.6563218137116946</v>
+        <v>0.6787585816410039</v>
       </c>
       <c r="E4">
-        <v>0.04641878265457657</v>
+        <v>0.04111721901569738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>324.9382701386529</v>
+        <v>535.6582093094401</v>
       </c>
       <c r="B5">
-        <v>876.8906608558389</v>
+        <v>1059.933606311536</v>
       </c>
       <c r="C5">
-        <v>990.8955223880597</v>
+        <v>899.8179669030733</v>
       </c>
       <c r="D5">
-        <v>0.6710503054763695</v>
+        <v>0.650095874227232</v>
       </c>
       <c r="E5">
-        <v>0.0367057439027964</v>
+        <v>0.04317933131562558</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>354.3555131164555</v>
+        <v>387.1739218782783</v>
       </c>
       <c r="B6">
-        <v>783.9513502739704</v>
+        <v>855.8566860713264</v>
       </c>
       <c r="C6">
-        <v>752.6085918854416</v>
+        <v>1006.41564792176</v>
       </c>
       <c r="D6">
-        <v>0.6612199278653815</v>
+        <v>0.6387749939257916</v>
       </c>
       <c r="E6">
-        <v>0.04299368443688949</v>
+        <v>0.05417474234497308</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>470.17440011938</v>
+        <v>426.7632653135498</v>
       </c>
       <c r="B7">
-        <v>946.122170585766</v>
+        <v>833.3869298361025</v>
       </c>
       <c r="C7">
-        <v>751.3497652582159</v>
+        <v>855.8065268065268</v>
       </c>
       <c r="D7">
-        <v>0.6509166364307226</v>
+        <v>0.6834729905922953</v>
       </c>
       <c r="E7">
-        <v>0.04915097550508152</v>
+        <v>0.04543077563555232</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>466.1960877145162</v>
+        <v>357.0764183419125</v>
       </c>
       <c r="B8">
-        <v>848.0626522780983</v>
+        <v>793.2339603644564</v>
       </c>
       <c r="C8">
-        <v>906.0559610705596</v>
+        <v>780.4245283018868</v>
       </c>
       <c r="D8">
-        <v>0.681327679070368</v>
+        <v>0.7053150460882496</v>
       </c>
       <c r="E8">
-        <v>0.04522595394908663</v>
+        <v>0.03900576014179646</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>503.8737934344713</v>
+        <v>395.8747327730796</v>
       </c>
       <c r="B9">
-        <v>908.3507091094182</v>
+        <v>774.3403359855844</v>
       </c>
       <c r="C9">
-        <v>988.8452088452088</v>
+        <v>880.3536585365854</v>
       </c>
       <c r="D9">
-        <v>0.6630522387113338</v>
+        <v>0.6792223371609458</v>
       </c>
       <c r="E9">
-        <v>0.04948146940332453</v>
+        <v>0.04460705192896147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>471.3617734672589</v>
+        <v>518.2916063166108</v>
       </c>
       <c r="B10">
-        <v>833.9014786168025</v>
+        <v>863.0127037930994</v>
       </c>
       <c r="C10">
-        <v>956.6119402985074</v>
+        <v>895.8554502369668</v>
       </c>
       <c r="D10">
-        <v>0.6900054436256274</v>
+        <v>0.6412304949987966</v>
       </c>
       <c r="E10">
-        <v>0.0427445994721344</v>
+        <v>0.0432003058150485</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>470.2808165051172</v>
+        <v>288.1143203177264</v>
       </c>
       <c r="B11">
-        <v>1066.631278280775</v>
+        <v>756.9348237488432</v>
       </c>
       <c r="C11">
-        <v>752.0930787589499</v>
+        <v>1010.853658536585</v>
       </c>
       <c r="D11">
-        <v>0.6602710377295375</v>
+        <v>0.6322477458031295</v>
       </c>
       <c r="E11">
-        <v>0.03857991236011683</v>
+        <v>0.04899110361209084</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>424.1690938426557</v>
+        <v>290.9366729527261</v>
       </c>
       <c r="B12">
-        <v>1017.847653938828</v>
+        <v>870.820932574884</v>
       </c>
       <c r="C12">
-        <v>759.5480093676815</v>
+        <v>891.9090909090909</v>
       </c>
       <c r="D12">
-        <v>0.6440066415371442</v>
+        <v>0.6499248730793904</v>
       </c>
       <c r="E12">
-        <v>0.05156398973864859</v>
+        <v>0.04809196312133952</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>447.4676921327566</v>
+        <v>512.2763802351981</v>
       </c>
       <c r="B13">
-        <v>1023.594123873359</v>
+        <v>1026.716628902916</v>
       </c>
       <c r="C13">
-        <v>945.3771289537713</v>
+        <v>775.3773584905661</v>
       </c>
       <c r="D13">
-        <v>0.629348168336633</v>
+        <v>0.680309412075234</v>
       </c>
       <c r="E13">
-        <v>0.05199322599956768</v>
+        <v>0.04433491076926392</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>446.8051369074049</v>
+        <v>468.0610095660432</v>
       </c>
       <c r="B14">
-        <v>996.8556718552762</v>
+        <v>1059.130522022719</v>
       </c>
       <c r="C14">
-        <v>1012.397058823529</v>
+        <v>919.8540145985402</v>
       </c>
       <c r="D14">
-        <v>0.6597371004920745</v>
+        <v>0.6270432239459595</v>
       </c>
       <c r="E14">
-        <v>0.04086247375045143</v>
+        <v>0.03992733759037816</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>324.6269938836477</v>
+        <v>482.2352923971083</v>
       </c>
       <c r="B15">
-        <v>866.1663488720885</v>
+        <v>1124.542319164403</v>
       </c>
       <c r="C15">
-        <v>990.8955223880597</v>
+        <v>896.7788235294117</v>
       </c>
       <c r="D15">
-        <v>0.6710503054763695</v>
+        <v>0.6600392881186032</v>
       </c>
       <c r="E15">
-        <v>0.0363464131361119</v>
+        <v>0.04099376242349749</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>374.1404669653286</v>
+        <v>432.5890831584028</v>
       </c>
       <c r="B16">
-        <v>827.1981340262671</v>
+        <v>804.4495991872856</v>
       </c>
       <c r="C16">
-        <v>732.6875</v>
+        <v>989.5658536585366</v>
       </c>
       <c r="D16">
-        <v>0.6661080850775645</v>
+        <v>0.6585931937493616</v>
       </c>
       <c r="E16">
-        <v>0.04316163996707001</v>
+        <v>0.03714759551765608</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>558.7268636902611</v>
+        <v>610.2680642039394</v>
       </c>
       <c r="B17">
-        <v>970.1935972037443</v>
+        <v>988.8108834528274</v>
       </c>
       <c r="C17">
-        <v>723.2352941176471</v>
+        <v>872.6932084309134</v>
       </c>
       <c r="D17">
-        <v>0.6947982583887073</v>
+        <v>0.675982512386868</v>
       </c>
       <c r="E17">
-        <v>0.04802484800126362</v>
+        <v>0.04063482161817528</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>367.3840181178791</v>
+        <v>356.9753328800027</v>
       </c>
       <c r="B18">
-        <v>870.3341814099016</v>
+        <v>719.3574268446149</v>
       </c>
       <c r="C18">
-        <v>937.6155717761557</v>
+        <v>781.28</v>
       </c>
       <c r="D18">
-        <v>0.6401871402414965</v>
+        <v>0.6981655631614404</v>
       </c>
       <c r="E18">
-        <v>0.04283323637065064</v>
+        <v>0.03910167463945244</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>419.7529357642758</v>
+        <v>436.2370182600124</v>
       </c>
       <c r="B19">
-        <v>823.7318502016195</v>
+        <v>828.7624130337399</v>
       </c>
       <c r="C19">
-        <v>997.8946078431372</v>
+        <v>864.2384428223844</v>
       </c>
       <c r="D19">
-        <v>0.6761325316951798</v>
+        <v>0.6721312807768043</v>
       </c>
       <c r="E19">
-        <v>0.04506508409332595</v>
+        <v>0.05352553749104696</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>232.6080243555439</v>
+        <v>377.3669827128648</v>
       </c>
       <c r="B20">
-        <v>591.0842960409333</v>
+        <v>774.1719853029284</v>
       </c>
       <c r="C20">
-        <v>969.5334987593052</v>
+        <v>914.1011764705883</v>
       </c>
       <c r="D20">
-        <v>0.6818812719225352</v>
+        <v>0.6375167174260734</v>
       </c>
       <c r="E20">
-        <v>0.03103385412860069</v>
+        <v>0.04143632991592708</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>301.1602688851882</v>
+        <v>392.6520218051522</v>
       </c>
       <c r="B21">
-        <v>947.8009289884989</v>
+        <v>1089.279051726693</v>
       </c>
       <c r="C21">
-        <v>739.2757793764988</v>
+        <v>1008.510948905109</v>
       </c>
       <c r="D21">
-        <v>0.6634175035868425</v>
+        <v>0.6624922364937994</v>
       </c>
       <c r="E21">
-        <v>0.04720589664789671</v>
+        <v>0.04061905079799605</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>336.6339162577059</v>
+        <v>416.2385498636046</v>
       </c>
       <c r="B22">
-        <v>928.3745088167427</v>
+        <v>953.2542453606609</v>
       </c>
       <c r="C22">
-        <v>766.3521126760563</v>
+        <v>886.6144859813085</v>
       </c>
       <c r="D22">
-        <v>0.6424442315339414</v>
+        <v>0.6811983439939677</v>
       </c>
       <c r="E22">
-        <v>0.04691016494228207</v>
+        <v>0.04158711639991551</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>225.2674687519175</v>
+        <v>435.1902772329945</v>
       </c>
       <c r="B23">
-        <v>849.152551842715</v>
+        <v>1097.683906599813</v>
       </c>
       <c r="C23">
-        <v>921.4223300970874</v>
+        <v>782.3356973995271</v>
       </c>
       <c r="D23">
-        <v>0.6720459250739914</v>
+        <v>0.6560609511452918</v>
       </c>
       <c r="E23">
-        <v>0.04361203029725617</v>
+        <v>0.05672098111776068</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>382.1658557598135</v>
+        <v>398.0237873736015</v>
       </c>
       <c r="B24">
-        <v>1055.392894912173</v>
+        <v>1007.243891445989</v>
       </c>
       <c r="C24">
-        <v>1011.899509803922</v>
+        <v>878.5170731707317</v>
       </c>
       <c r="D24">
-        <v>0.6377215889846054</v>
+        <v>0.6496355064323811</v>
       </c>
       <c r="E24">
-        <v>0.04355515385249981</v>
+        <v>0.04491874384144849</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>390.8940064002668</v>
+        <v>405.6334516878842</v>
       </c>
       <c r="B25">
-        <v>1071.680805617856</v>
+        <v>1018.023185325195</v>
       </c>
       <c r="C25">
-        <v>963.6592039800995</v>
+        <v>871.585308056872</v>
       </c>
       <c r="D25">
-        <v>0.6608007904834895</v>
+        <v>0.6580655258200019</v>
       </c>
       <c r="E25">
-        <v>0.0403141516754548</v>
+        <v>0.04452784459624642</v>
       </c>
     </row>
   </sheetData>

--- a/temp_ + Ahirkapi Anchorage.xlsx
+++ b/temp_ + Ahirkapi Anchorage.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE4C575-ADE0-41BC-A16D-0222DBA2A045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +58,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,7 +110,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -130,6 +144,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -164,9 +179,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -339,436 +355,438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>516.0019448174137</v>
+        <v>553.69438041249941</v>
       </c>
       <c r="B1">
-        <v>1088.664755781793</v>
+        <v>1137.793062711025</v>
       </c>
       <c r="C1">
-        <v>1014.25304136253</v>
+        <v>872.0915841584158</v>
       </c>
       <c r="D1">
-        <v>0.6309558059220496</v>
+        <v>0.68522175301847432</v>
       </c>
       <c r="E1">
-        <v>0.04021410072213714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>4.7533778065998948E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>561.8472570203513</v>
+        <v>484.88850743365492</v>
       </c>
       <c r="B2">
-        <v>1151.388692055041</v>
+        <v>1047.847539191092</v>
       </c>
       <c r="C2">
-        <v>924.5337995337995</v>
+        <v>1037.407317073171</v>
       </c>
       <c r="D2">
-        <v>0.6074679387198131</v>
+        <v>0.67954448201402429</v>
       </c>
       <c r="E2">
-        <v>0.04395497766189977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3.2423466789002611E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>402.2448940031511</v>
+        <v>349.26296286136471</v>
       </c>
       <c r="B3">
-        <v>959.0999482870349</v>
+        <v>930.89611878266749</v>
       </c>
       <c r="C3">
-        <v>787.7193396226415</v>
+        <v>763.45833333333337</v>
       </c>
       <c r="D3">
-        <v>0.6888922396522161</v>
+        <v>0.65282669258676251</v>
       </c>
       <c r="E3">
-        <v>0.04396826828858024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>5.1848736400531691E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>524.3639150530751</v>
+        <v>383.83997876765488</v>
       </c>
       <c r="B4">
-        <v>1116.261723854774</v>
+        <v>946.11954541483499</v>
       </c>
       <c r="C4">
-        <v>869.8390243902439</v>
+        <v>868.29772727272723</v>
       </c>
       <c r="D4">
-        <v>0.6787585816410039</v>
+        <v>0.64108095532316522</v>
       </c>
       <c r="E4">
-        <v>0.04111721901569738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3.9070095232163857E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>535.6582093094401</v>
+        <v>412.82977735442489</v>
       </c>
       <c r="B5">
-        <v>1059.933606311536</v>
+        <v>947.02218601951017</v>
       </c>
       <c r="C5">
-        <v>899.8179669030733</v>
+        <v>832.85037406483787</v>
       </c>
       <c r="D5">
-        <v>0.650095874227232</v>
+        <v>0.64902510093821819</v>
       </c>
       <c r="E5">
-        <v>0.04317933131562558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>4.3068151536662769E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>387.1739218782783</v>
+        <v>474.7839006360108</v>
       </c>
       <c r="B6">
-        <v>855.8566860713264</v>
+        <v>821.72625500237552</v>
       </c>
       <c r="C6">
-        <v>1006.41564792176</v>
+        <v>856.73514851485152</v>
       </c>
       <c r="D6">
-        <v>0.6387749939257916</v>
+        <v>0.70387294094527453</v>
       </c>
       <c r="E6">
-        <v>0.05417474234497308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>4.2056217418541451E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>426.7632653135498</v>
+        <v>470.78444462040068</v>
       </c>
       <c r="B7">
-        <v>833.3869298361025</v>
+        <v>829.86915143272779</v>
       </c>
       <c r="C7">
-        <v>855.8065268065268</v>
+        <v>1021.017073170732</v>
       </c>
       <c r="D7">
-        <v>0.6834729905922953</v>
+        <v>0.70915120900478368</v>
       </c>
       <c r="E7">
-        <v>0.04543077563555232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.09862518862484E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>357.0764183419125</v>
+        <v>434.09167648520457</v>
       </c>
       <c r="B8">
-        <v>793.2339603644564</v>
+        <v>877.25854821000576</v>
       </c>
       <c r="C8">
-        <v>780.4245283018868</v>
+        <v>808.71990740740739</v>
       </c>
       <c r="D8">
-        <v>0.7053150460882496</v>
+        <v>0.65628797923908055</v>
       </c>
       <c r="E8">
-        <v>0.03900576014179646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>4.2529313622462248E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>395.8747327730796</v>
+        <v>348.24057916872482</v>
       </c>
       <c r="B9">
-        <v>774.3403359855844</v>
+        <v>714.48882363207997</v>
       </c>
       <c r="C9">
-        <v>880.3536585365854</v>
+        <v>873.28018223234619</v>
       </c>
       <c r="D9">
-        <v>0.6792223371609458</v>
+        <v>0.64182800354524827</v>
       </c>
       <c r="E9">
-        <v>0.04460705192896147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>4.4733183489821762E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>518.2916063166108</v>
+        <v>360.14809344728349</v>
       </c>
       <c r="B10">
-        <v>863.0127037930994</v>
+        <v>768.79788162921602</v>
       </c>
       <c r="C10">
-        <v>895.8554502369668</v>
+        <v>842.39401496259347</v>
       </c>
       <c r="D10">
-        <v>0.6412304949987966</v>
+        <v>0.65917360466353592</v>
       </c>
       <c r="E10">
-        <v>0.0432003058150485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>4.5677867455558997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>288.1143203177264</v>
+        <v>566.12073978001001</v>
       </c>
       <c r="B11">
-        <v>756.9348237488432</v>
+        <v>1244.629401689931</v>
       </c>
       <c r="C11">
-        <v>1010.853658536585</v>
+        <v>901.53940886699502</v>
       </c>
       <c r="D11">
-        <v>0.6322477458031295</v>
+        <v>0.65528565410477635</v>
       </c>
       <c r="E11">
-        <v>0.04899110361209084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>3.9845369340626671E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>290.9366729527261</v>
+        <v>413.10562059221428</v>
       </c>
       <c r="B12">
-        <v>870.820932574884</v>
+        <v>952.57659354281066</v>
       </c>
       <c r="C12">
-        <v>891.9090909090909</v>
+        <v>1025.8924205378969</v>
       </c>
       <c r="D12">
-        <v>0.6499248730793904</v>
+        <v>0.66602650676227704</v>
       </c>
       <c r="E12">
-        <v>0.04809196312133952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>3.7799756109926377E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>512.2763802351981</v>
+        <v>372.46276644076528</v>
       </c>
       <c r="B13">
-        <v>1026.716628902916</v>
+        <v>924.7236210778284</v>
       </c>
       <c r="C13">
-        <v>775.3773584905661</v>
+        <v>740.73148148148152</v>
       </c>
       <c r="D13">
-        <v>0.680309412075234</v>
+        <v>0.68499829642688481</v>
       </c>
       <c r="E13">
-        <v>0.04433491076926392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>5.0020603775080948E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>468.0610095660432</v>
+        <v>395.69511203735669</v>
       </c>
       <c r="B14">
-        <v>1059.130522022719</v>
+        <v>1012.080729278198</v>
       </c>
       <c r="C14">
-        <v>919.8540145985402</v>
+        <v>857.134703196347</v>
       </c>
       <c r="D14">
-        <v>0.6270432239459595</v>
+        <v>0.642492951132839</v>
       </c>
       <c r="E14">
-        <v>0.03992733759037816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>4.1512961542658912E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>482.2352923971083</v>
+        <v>486.05251277688581</v>
       </c>
       <c r="B15">
-        <v>1124.542319164403</v>
+        <v>1106.4802997569391</v>
       </c>
       <c r="C15">
-        <v>896.7788235294117</v>
+        <v>878.52357320099259</v>
       </c>
       <c r="D15">
-        <v>0.6600392881186032</v>
+        <v>0.62528099007059812</v>
       </c>
       <c r="E15">
-        <v>0.04099376242349749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>4.3572597528138052E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>432.5890831584028</v>
+        <v>577.72856673707702</v>
       </c>
       <c r="B16">
-        <v>804.4495991872856</v>
+        <v>945.57887220083785</v>
       </c>
       <c r="C16">
-        <v>989.5658536585366</v>
+        <v>895.35135135135135</v>
       </c>
       <c r="D16">
-        <v>0.6585931937493616</v>
+        <v>0.68172902020633308</v>
       </c>
       <c r="E16">
-        <v>0.03714759551765608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>3.7493974134276672E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>610.2680642039394</v>
+        <v>432.61734762322288</v>
       </c>
       <c r="B17">
-        <v>988.8108834528274</v>
+        <v>855.74362405236388</v>
       </c>
       <c r="C17">
-        <v>872.6932084309134</v>
+        <v>1042.1219512195121</v>
       </c>
       <c r="D17">
-        <v>0.675982512386868</v>
+        <v>0.65529643689130712</v>
       </c>
       <c r="E17">
-        <v>0.04063482161817528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>4.5055234708284118E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>356.9753328800027</v>
+        <v>475.49555544602958</v>
       </c>
       <c r="B18">
-        <v>719.3574268446149</v>
+        <v>962.95267807851201</v>
       </c>
       <c r="C18">
-        <v>781.28</v>
+        <v>792.07175925925924</v>
       </c>
       <c r="D18">
-        <v>0.6981655631614404</v>
+        <v>0.65480785085881743</v>
       </c>
       <c r="E18">
-        <v>0.03910167463945244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>5.0879296460206488E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>436.2370182600124</v>
+        <v>303.85787583332939</v>
       </c>
       <c r="B19">
-        <v>828.7624130337399</v>
+        <v>664.89995514722364</v>
       </c>
       <c r="C19">
-        <v>864.2384428223844</v>
+        <v>878.43409090909086</v>
       </c>
       <c r="D19">
-        <v>0.6721312807768043</v>
+        <v>0.6509626542678465</v>
       </c>
       <c r="E19">
-        <v>0.05352553749104696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>3.6946628983896099E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>377.3669827128648</v>
+        <v>465.59871321493142</v>
       </c>
       <c r="B20">
-        <v>774.1719853029284</v>
+        <v>839.86901181533824</v>
       </c>
       <c r="C20">
-        <v>914.1011764705883</v>
+        <v>819.0575</v>
       </c>
       <c r="D20">
-        <v>0.6375167174260734</v>
+        <v>0.68516084732392135</v>
       </c>
       <c r="E20">
-        <v>0.04143632991592708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>4.1484442769385489E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>392.6520218051522</v>
+        <v>444.38784531642489</v>
       </c>
       <c r="B21">
-        <v>1089.279051726693</v>
+        <v>1072.3430165084051</v>
       </c>
       <c r="C21">
-        <v>1008.510948905109</v>
+        <v>919.22358722358717</v>
       </c>
       <c r="D21">
-        <v>0.6624922364937994</v>
+        <v>0.64813717697677931</v>
       </c>
       <c r="E21">
-        <v>0.04061905079799605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>4.0894229791710597E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>416.2385498636046</v>
+        <v>392.61081154953399</v>
       </c>
       <c r="B22">
-        <v>953.2542453606609</v>
+        <v>1043.3735514393441</v>
       </c>
       <c r="C22">
-        <v>886.6144859813085</v>
+        <v>1000</v>
       </c>
       <c r="D22">
-        <v>0.6811983439939677</v>
+        <v>0.70907267496208926</v>
       </c>
       <c r="E22">
-        <v>0.04158711639991551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>4.5703467751170533E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>435.1902772329945</v>
+        <v>307.29409806560841</v>
       </c>
       <c r="B23">
-        <v>1097.683906599813</v>
+        <v>994.70615894272521</v>
       </c>
       <c r="C23">
-        <v>782.3356973995271</v>
+        <v>817.12037037037032</v>
       </c>
       <c r="D23">
-        <v>0.6560609511452918</v>
+        <v>0.65564349670427369</v>
       </c>
       <c r="E23">
-        <v>0.05672098111776068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>4.3224178965440473E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>398.0237873736015</v>
+        <v>354.70966909373618</v>
       </c>
       <c r="B24">
-        <v>1007.243891445989</v>
+        <v>932.43617546381859</v>
       </c>
       <c r="C24">
-        <v>878.5170731707317</v>
+        <v>871.78409090909088</v>
       </c>
       <c r="D24">
-        <v>0.6496355064323811</v>
+        <v>0.63097738794160207</v>
       </c>
       <c r="E24">
-        <v>0.04491874384144849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>4.0797797200251507E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>405.6334516878842</v>
+        <v>369.89782532770192</v>
       </c>
       <c r="B25">
-        <v>1018.023185325195</v>
+        <v>1055.4401027470251</v>
       </c>
       <c r="C25">
-        <v>871.585308056872</v>
+        <v>828.32</v>
       </c>
       <c r="D25">
-        <v>0.6580655258200019</v>
+        <v>0.68212793674559247</v>
       </c>
       <c r="E25">
-        <v>0.04452784459624642</v>
+        <v>3.6792632122704692E-2</v>
       </c>
     </row>
   </sheetData>
